--- a/medicine/Psychotrope/Red_Hills_Lake_County/Red_Hills_Lake_County.xlsx
+++ b/medicine/Psychotrope/Red_Hills_Lake_County/Red_Hills_Lake_County.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Red Hills Lake County est une région viticole américaine (American Viticultural Area, ou AVA) dans le comté de Lake, en Californie, reconnue en 2004 par l'Alcohol and Tobacco Tax and Trade Bureau.
